--- a/practice_data+for+anova(Udanous)15 feb.xlsx
+++ b/practice_data+for+anova(Udanous)15 feb.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\udaanous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D853E5-301E-43E8-A113-02D4904A134E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E250ED-C26C-47A5-B299-E6C165545684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="1" xr2:uid="{03E43F0D-F947-F64B-9D7E-764189E7D68D}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="1" xr2:uid="{03E43F0D-F947-F64B-9D7E-764189E7D68D}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="ANOVA" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ANOVA!$A$1:$A$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ANOVA!$A$1:$B$101</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">ANOVA!$B$2:$B$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="72">
   <si>
     <t>Product_Category</t>
   </si>
@@ -5953,10 +5954,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B9E6FC-7F28-1F4A-9631-C7F8F2D8822D}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="95" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5983,7 +5985,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>Data!D2</f>
         <v>Business</v>
@@ -6047,7 +6049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>Data!D5</f>
         <v>Business</v>
@@ -6069,7 +6071,7 @@
         <v>364.7761269469521</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>Data!D6</f>
         <v>Wholesale</v>
@@ -6094,7 +6096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>Data!D7</f>
         <v>Business</v>
@@ -6131,7 +6133,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>Data!D8</f>
         <v>Business</v>
@@ -6242,7 +6244,7 @@
         <v>28093.435800176598</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>Data!D11</f>
         <v>Individual</v>
@@ -6286,7 +6288,7 @@
         <v>696.81069761586082</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>Data!D13</f>
         <v>Wholesale</v>
@@ -6311,7 +6313,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>Data!D14</f>
         <v>Individual</v>
@@ -6354,7 +6356,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>Data!D15</f>
         <v>Business</v>
@@ -6434,7 +6436,7 @@
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>Data!D17</f>
         <v>Business</v>
@@ -6498,7 +6500,7 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>Data!D19</f>
         <v>Business</v>
@@ -6611,7 +6613,7 @@
         <v>659.36358432663053</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f>Data!D24</f>
         <v>Individual</v>
@@ -6636,7 +6638,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>Data!D25</f>
         <v>Business</v>
@@ -6658,7 +6660,7 @@
         <v>551.57500310812304</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>Data!D26</f>
         <v>Business</v>
@@ -6680,7 +6682,7 @@
         <v>886.1339798802187</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>Data!D27</f>
         <v>Business</v>
@@ -6702,7 +6704,7 @@
         <v>252.880529766411</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f>Data!D28</f>
         <v>Individual</v>
@@ -6724,7 +6726,7 @@
         <v>519.22626043512992</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>Data!D29</f>
         <v>Business</v>
@@ -6756,7 +6758,7 @@
         <v>518.08895796790466</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
         <f>Data!D31</f>
         <v>Individual</v>
@@ -6770,7 +6772,7 @@
         <v>734.54360210915809</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f>Data!D32</f>
         <v>Individual</v>
@@ -6780,7 +6782,7 @@
         <v>545.77266574920179</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f>Data!D33</f>
         <v>Individual</v>
@@ -6800,7 +6802,7 @@
         <v>610.02358125508351</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
         <f>Data!D35</f>
         <v>Individual</v>
@@ -6810,7 +6812,7 @@
         <v>830.13369852249514</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="str">
         <f>Data!D36</f>
         <v>Business</v>
@@ -6820,7 +6822,7 @@
         <v>307.91532286630729</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
         <f>Data!D37</f>
         <v>Business</v>
@@ -6830,7 +6832,7 @@
         <v>557.79180936942089</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
         <f>Data!D38</f>
         <v>Business</v>
@@ -6840,7 +6842,7 @@
         <v>449.13093283360729</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
         <f>Data!D39</f>
         <v>Business</v>
@@ -6880,7 +6882,7 @@
         <v>447.27848635895299</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
         <f>Data!D43</f>
         <v>Business</v>
@@ -6890,7 +6892,7 @@
         <v>890.46319359814106</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
         <f>Data!D44</f>
         <v>Individual</v>
@@ -6900,7 +6902,7 @@
         <v>503.2671201808941</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
         <f>Data!D45</f>
         <v>Individual</v>
@@ -6910,7 +6912,7 @@
         <v>421.88563910474119</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="str">
         <f>Data!D46</f>
         <v>Individual</v>
@@ -6920,7 +6922,7 @@
         <v>291.05760965024848</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="str">
         <f>Data!D47</f>
         <v>Individual</v>
@@ -6930,7 +6932,7 @@
         <v>596.96015524763516</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="str">
         <f>Data!D48</f>
         <v>Individual</v>
@@ -6950,7 +6952,7 @@
         <v>696.81069761586082</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="str">
         <f>Data!D50</f>
         <v>Individual</v>
@@ -6980,7 +6982,7 @@
         <v>504.65458741369969</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="str">
         <f>Data!D53</f>
         <v>Business</v>
@@ -6990,7 +6992,7 @@
         <v>496.06702576891882</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="str">
         <f>Data!D54</f>
         <v>Business</v>
@@ -7000,7 +7002,7 @@
         <v>569.036813905543</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="str">
         <f>Data!D55</f>
         <v>Individual</v>
@@ -7010,7 +7012,7 @@
         <v>523.01127462814736</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="str">
         <f>Data!D56</f>
         <v>Individual</v>
@@ -7030,7 +7032,7 @@
         <v>830.13369852249514</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="str">
         <f>Data!D58</f>
         <v>Business</v>
@@ -7040,7 +7042,7 @@
         <v>497.81317760107709</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="str">
         <f>Data!D59</f>
         <v>Business</v>
@@ -7060,7 +7062,7 @@
         <v>523.01127462814736</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="str">
         <f>Data!D61</f>
         <v>Individual</v>
@@ -7070,7 +7072,7 @@
         <v>504.65458741369969</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="str">
         <f>Data!D62</f>
         <v>Business</v>
@@ -7080,7 +7082,7 @@
         <v>319.56344705841639</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="str">
         <f>Data!D63</f>
         <v>Business</v>
@@ -7090,7 +7092,7 @@
         <v>619.41733832886609</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="str">
         <f>Data!D64</f>
         <v>Individual</v>
@@ -7110,7 +7112,7 @@
         <v>521.92242249612491</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="str">
         <f>Data!D66</f>
         <v>Individual</v>
@@ -7120,7 +7122,7 @@
         <v>473.37922936466907</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="str">
         <f>Data!D67</f>
         <v>Individual</v>
@@ -7150,7 +7152,7 @@
         <v>648.04278931605404</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="str">
         <f>Data!D70</f>
         <v>Individual</v>
@@ -7160,7 +7162,7 @@
         <v>608.0353746788893</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="str">
         <f>Data!D71</f>
         <v>Business</v>
@@ -7170,7 +7172,7 @@
         <v>362.0806959925111</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="str">
         <f>Data!D72</f>
         <v>Individual</v>
@@ -7180,7 +7182,7 @@
         <v>573.24211385453748</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="str">
         <f>Data!D73</f>
         <v>Business</v>
@@ -7190,7 +7192,7 @@
         <v>551.57500310812304</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="str">
         <f>Data!D74</f>
         <v>Individual</v>
@@ -7210,7 +7212,7 @@
         <v>551.57500310812304</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="str">
         <f>Data!D76</f>
         <v>Individual</v>
@@ -7220,7 +7222,7 @@
         <v>545.77266574920179</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="str">
         <f>Data!D77</f>
         <v>Business</v>
@@ -7240,7 +7242,7 @@
         <v>886.1339798802187</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="str">
         <f>Data!D79</f>
         <v>Individual</v>
@@ -7250,7 +7252,7 @@
         <v>726.81693567394757</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="str">
         <f>Data!D80</f>
         <v>Individual</v>
@@ -7260,7 +7262,7 @@
         <v>886.1339798802187</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="str">
         <f>Data!D81</f>
         <v>Individual</v>
@@ -7320,7 +7322,7 @@
         <v>817.8805740858752</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="str">
         <f>Data!D87</f>
         <v>Individual</v>
@@ -7330,7 +7332,7 @@
         <v>603.45495957616026</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="str">
         <f>Data!D88</f>
         <v>Business</v>
@@ -7340,7 +7342,7 @@
         <v>518.08895796790466</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="str">
         <f>Data!D89</f>
         <v>Business</v>
@@ -7350,7 +7352,7 @@
         <v>307.91532286630729</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="str">
         <f>Data!D90</f>
         <v>Business</v>
@@ -7370,7 +7372,7 @@
         <v>519.22626043512992</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="str">
         <f>Data!D92</f>
         <v>Business</v>
@@ -7390,7 +7392,7 @@
         <v>389.38710677341862</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="str">
         <f>Data!D94</f>
         <v>Individual</v>
@@ -7420,7 +7422,7 @@
         <v>518.08895796790466</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="str">
         <f>Data!D97</f>
         <v>Individual</v>
@@ -7440,7 +7442,7 @@
         <v>734.54360210915809</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="str">
         <f>Data!D99</f>
         <v>Individual</v>
@@ -7450,7 +7452,7 @@
         <v>447.27848635895299</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="str">
         <f>Data!D100</f>
         <v>Business</v>
@@ -7460,7 +7462,7 @@
         <v>504.65458741369969</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="str">
         <f>Data!D101</f>
         <v>Business</v>
@@ -7471,6 +7473,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B101" xr:uid="{5C4D5F55-29AF-4E44-A677-935A6B704805}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Wholesale"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="D2:K2"/>
   </mergeCells>
@@ -7478,4 +7487,715 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72B5718-C1A0-49E5-9170-9B4A84C4486D}">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1">
+        <v>619.41733832886609</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
+        <v>413.90524534251369</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1">
+        <v>886.1339798802187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>610.02358125508351</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>491.90097738880718</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1">
+        <v>449.13093283360729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>576.61392133806294</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>294.05947140624812</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1">
+        <v>364.7761269469521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>449.13093283360729</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>720.91010268149512</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1">
+        <v>372.90517238163818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>497.81317760107709</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>473.55217273725202</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1">
+        <v>545.77266574920179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>610.02358125508351</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>545.77266574920179</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1">
+        <v>600.05114910613997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>291.05760965024848</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>375.22752388249648</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1">
+        <v>726.81693567394757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>521.92242249612491</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>830.13369852249514</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1">
+        <v>734.54360210915809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>415.68001582094871</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>503.2671201808941</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1">
+        <v>614.24978057956264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>463.17255028533771</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>421.88563910474119</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1">
+        <v>696.81069761586082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>830.13369852249514</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>291.05760965024848</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1">
+        <v>551.57500310812304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>307.91532286630729</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>596.96015524763516</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="1">
+        <v>495.58882510192927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>557.79180936942089</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>559.97758335747517</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="1">
+        <v>252.880529766411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>449.13093283360729</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>606.72437794032601</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1">
+        <v>573.45234536559701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>734.54360210915809</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>523.01127462814736</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="1">
+        <v>610.02358125508351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>890.46319359814106</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>438.67524693903368</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1">
+        <v>252.880529766411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>496.06702576891882</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>504.65458741369969</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1">
+        <v>708.1677590396705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>569.036813905543</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>305.47024795509333</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="1">
+        <v>447.27848635895299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>497.81317760107709</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>473.37922936466907</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="1">
+        <v>696.81069761586082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <v>375.22752388249648</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>619.41733832886609</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="1">
+        <v>484.28885475832197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1">
+        <v>319.56344705841639</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>608.0353746788893</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1">
+        <v>504.65458741369969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <v>619.41733832886609</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>573.24211385453748</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="1">
+        <v>830.13369852249514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1">
+        <v>362.0806959925111</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1">
+        <v>581.24124671152902</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="1">
+        <v>523.01127462814736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1">
+        <v>551.57500310812304</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1">
+        <v>545.77266574920179</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="1">
+        <v>521.92242249612491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1">
+        <v>403.40831801853841</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>726.81693567394757</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="1">
+        <v>659.36358432663053</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1">
+        <v>518.08895796790466</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1">
+        <v>886.1339798802187</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="1">
+        <v>648.04278931605404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1">
+        <v>307.91532286630729</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1">
+        <v>664.15565877204904</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="1">
+        <v>551.57500310812304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1">
+        <v>375.22752388249648</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>603.45495957616026</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="1">
+        <v>886.1339798802187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1">
+        <v>291.05760965024848</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>454.85168594785551</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="1">
+        <v>558.42480133446179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1">
+        <v>504.65458741369969</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1">
+        <v>167.05152762488819</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="1">
+        <v>569.036813905543</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1">
+        <v>419.38042762271778</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1">
+        <v>447.27848635895299</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="1">
+        <v>252.880529766411</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="1">
+        <v>773.23782906934002</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="1">
+        <v>817.8805740858752</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="1">
+        <v>519.22626043512992</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="1">
+        <v>389.38710677341862</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="1">
+        <v>521.92242249612491</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="1">
+        <v>518.08895796790466</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="1">
+        <v>734.54360210915809</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>